--- a/power_comp_1_row_20_20_col_2.xlsx
+++ b/power_comp_1_row_20_20_col_2.xlsx
@@ -65,13 +65,13 @@
     <t xml:space="preserve">&lt; -0.0282</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt; -0.0745</t>
+    <t xml:space="preserve">&lt; -0.0744</t>
   </si>
   <si>
     <t xml:space="preserve">&lt; -0.0644</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0763 -0.0745</t>
+    <t xml:space="preserve">0.077 -0.0744</t>
   </si>
   <si>
     <t xml:space="preserve">&lt; -0.0463</t>
@@ -80,19 +80,19 @@
     <t xml:space="preserve">&lt; -0.0362</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0931 -0.0463</t>
+    <t xml:space="preserve">0.0941 -0.0463</t>
   </si>
   <si>
     <t xml:space="preserve">=</t>
   </si>
   <si>
-    <t xml:space="preserve">0.9957 0.0101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3641 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2259 -0.0101</t>
+    <t xml:space="preserve">0.9958 0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3677 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2281 -0.01</t>
   </si>
 </sst>
 </file>
